--- a/biology/Botanique/Hippuris/Hippuris.xlsx
+++ b/biology/Botanique/Hippuris/Hippuris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hippuris est un genre de plantes dicotylédones de la famille des Hippuridaceae selon la classification classique de Cronquist (1981)[1]. La classification phylogénétique inclut ce genre dans les Plantaginaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hippuris est un genre de plantes dicotylédones de la famille des Hippuridaceae selon la classification classique de Cronquist (1981). La classification phylogénétique inclut ce genre dans les Plantaginaceae.
 Ce sont des plantes herbacées, aquatiques ou des zones humides, fixées, pérennes, rhizomateuses à feuilles émergentes, des régions froides à tempérées.
 Le nom Hippuris provient du grec ἵππος — cheval et οὐρά — queue.
 </t>
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (7 mai 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (7 mai 2021) :
 Hippuris lanceolata Retz.
 Hippuris montana Ledeb.
 Hippuris tetraphylla L. f.
